--- a/表3.xlsx
+++ b/表3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shibu\Desktop\HI-kiyo_yomei-shimadu-paper\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B6B6EE-4F0B-4A9A-B1E8-F1C01D6E4365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACE0B26-5C73-4CDD-84BF-806600223923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,24 +50,6 @@
     <t>伊達政宗書状</t>
   </si>
   <si>
-    <t>近衛稙家消息</t>
-  </si>
-  <si>
-    <t>近衛稙家消息案</t>
-  </si>
-  <si>
-    <t>近衛前久消息</t>
-  </si>
-  <si>
-    <t>近衛信尹消息</t>
-  </si>
-  <si>
-    <t>近衛信尹消息断簡</t>
-  </si>
-  <si>
-    <t>近衛信尹消息案</t>
-  </si>
-  <si>
     <t>箱請取状</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
   </si>
   <si>
     <t>（一般文書目録外）</t>
-  </si>
-  <si>
-    <t>寛文五年 應圓満院御記</t>
   </si>
   <si>
     <t>イネ</t>
@@ -183,15 +162,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>近衛稙家書状</t>
+  </si>
+  <si>
+    <t>近衛稙家書状案</t>
+  </si>
+  <si>
+    <t>近衛前久書状</t>
+  </si>
+  <si>
+    <t>近衛信尹書状</t>
+  </si>
+  <si>
+    <t>近衛信尹書状断簡</t>
+  </si>
+  <si>
+    <t>近衛信尹書状案</t>
+  </si>
+  <si>
     <t>箱預り証状案</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>五常釈義</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>歌仙装束書付</t>
+  </si>
+  <si>
+    <t>寛文五年 応円満院御記</t>
+    <rPh sb="5" eb="7">
+      <t>オウエン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -202,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -232,6 +233,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="游明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -272,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -303,6 +310,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +631,10 @@
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -644,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -665,22 +675,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>1</v>
@@ -690,16 +700,16 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1864,7 +1874,7 @@
         <v>3148</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -1900,7 +1910,7 @@
         <v>3150</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -1936,7 +1946,7 @@
         <v>3156</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -1972,7 +1982,7 @@
         <v>3157</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -2008,7 +2018,7 @@
         <v>3158</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -2044,7 +2054,7 @@
         <v>3159</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -2080,7 +2090,7 @@
         <v>3160</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -2116,7 +2126,7 @@
         <v>3161</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -2152,7 +2162,7 @@
         <v>3162</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -2188,7 +2198,7 @@
         <v>3163</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -2224,7 +2234,7 @@
         <v>3164</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -2260,7 +2270,7 @@
         <v>3165</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -2296,7 +2306,7 @@
         <v>3166</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -2332,7 +2342,7 @@
         <v>3167</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -2368,7 +2378,7 @@
         <v>3168</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -2404,7 +2414,7 @@
         <v>3169</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -2440,7 +2450,7 @@
         <v>3170</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -2476,7 +2486,7 @@
         <v>3171</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -2512,7 +2522,7 @@
         <v>3172</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -2548,7 +2558,7 @@
         <v>3173</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -2584,7 +2594,7 @@
         <v>3174</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -2620,7 +2630,7 @@
         <v>3175</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
@@ -2656,7 +2666,7 @@
         <v>3176</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -2692,7 +2702,7 @@
         <v>2351</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -2728,7 +2738,7 @@
         <v>2352</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -2764,7 +2774,7 @@
         <v>38720</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
@@ -2800,7 +2810,7 @@
         <v>38721</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -2836,7 +2846,7 @@
         <v>38722</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -2872,7 +2882,7 @@
         <v>38723</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -2908,7 +2918,7 @@
         <v>38724</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C65" s="7">
         <v>0</v>
@@ -2944,7 +2954,7 @@
         <v>38725</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C66" s="7">
         <v>17</v>
@@ -2980,7 +2990,7 @@
         <v>38726</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -3016,7 +3026,7 @@
         <v>38727</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -3052,7 +3062,7 @@
         <v>38728</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -3088,7 +3098,7 @@
         <v>38729</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -3124,7 +3134,7 @@
         <v>38730</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C71" s="7">
         <v>0</v>
@@ -3160,7 +3170,7 @@
         <v>38731</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -3196,7 +3206,7 @@
         <v>38732</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -3232,7 +3242,7 @@
         <v>78733</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -3268,7 +3278,7 @@
         <v>38734</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C75" s="7">
         <v>0</v>
@@ -3304,7 +3314,7 @@
         <v>38735</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C76" s="7">
         <v>0</v>
@@ -3340,7 +3350,7 @@
         <v>38736</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C77" s="7">
         <v>0</v>
@@ -3376,7 +3386,7 @@
         <v>38737</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C78" s="7">
         <v>0</v>
@@ -3412,7 +3422,7 @@
         <v>38738</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C79" s="7">
         <v>0</v>
@@ -3448,7 +3458,7 @@
         <v>2363</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C80" s="7">
         <v>0</v>
@@ -3484,7 +3494,7 @@
         <v>2365</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C81" s="7">
         <v>0</v>
@@ -3520,7 +3530,7 @@
         <v>2366</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C82" s="7">
         <v>0</v>
@@ -3556,7 +3566,7 @@
         <v>2367</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C83" s="7">
         <v>0</v>
@@ -3592,7 +3602,7 @@
         <v>2368</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C84" s="7">
         <v>0</v>
@@ -3628,7 +3638,7 @@
         <v>2369</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C85" s="7">
         <v>0</v>
@@ -3664,7 +3674,7 @@
         <v>2370</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C86" s="7">
         <v>0</v>
@@ -3700,7 +3710,7 @@
         <v>2371</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C87" s="7">
         <v>17</v>
@@ -3736,7 +3746,7 @@
         <v>2372</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C88" s="7">
         <v>83</v>
@@ -3772,7 +3782,7 @@
         <v>2373</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C89" s="7">
         <v>0</v>
@@ -3808,7 +3818,7 @@
         <v>2374</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C90" s="7">
         <v>0</v>
@@ -3844,7 +3854,7 @@
         <v>2375</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C91" s="7">
         <v>62</v>
@@ -3880,7 +3890,7 @@
         <v>2376</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C92" s="7">
         <v>30</v>
@@ -3916,7 +3926,7 @@
         <v>2377</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C93" s="7">
         <v>0</v>
@@ -3952,7 +3962,7 @@
         <v>2378</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C94" s="7">
         <v>0</v>
@@ -3988,7 +3998,7 @@
         <v>2379</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C95" s="7">
         <v>0</v>
@@ -4024,7 +4034,7 @@
         <v>2380</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C96" s="7">
         <v>0</v>
@@ -4060,7 +4070,7 @@
         <v>2381</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C97" s="7">
         <v>0</v>
@@ -4096,7 +4106,7 @@
         <v>2382</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C98" s="7">
         <v>12</v>
@@ -4132,7 +4142,7 @@
         <v>2383</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C99" s="7">
         <v>0</v>
@@ -4168,7 +4178,7 @@
         <v>2384</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C100" s="7">
         <v>0</v>
@@ -4204,7 +4214,7 @@
         <v>2385</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C101" s="7">
         <v>19</v>
@@ -4240,7 +4250,7 @@
         <v>2386</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C102" s="7">
         <v>0</v>
@@ -4276,7 +4286,7 @@
         <v>2387</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C103" s="7">
         <v>0</v>
@@ -4312,7 +4322,7 @@
         <v>2388</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" s="7">
         <v>0</v>
@@ -4348,7 +4358,7 @@
         <v>2389</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C105" s="7">
         <v>0</v>
@@ -4384,7 +4394,7 @@
         <v>2390</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C106" s="7">
         <v>0</v>
@@ -4420,7 +4430,7 @@
         <v>2392</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" s="7">
         <v>0</v>
@@ -4456,7 +4466,7 @@
         <v>2393</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C108" s="7">
         <v>0</v>
@@ -4492,7 +4502,7 @@
         <v>2394</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
@@ -4528,7 +4538,7 @@
         <v>2396</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C110" s="7">
         <v>0</v>
@@ -4564,7 +4574,7 @@
         <v>2397</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C111" s="7">
         <v>0</v>
@@ -4600,7 +4610,7 @@
         <v>2398</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C112" s="7">
         <v>0</v>
@@ -4636,7 +4646,7 @@
         <v>2399</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C113" s="7">
         <v>0</v>
@@ -4672,7 +4682,7 @@
         <v>2400</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C114" s="7">
         <v>0</v>
@@ -4705,10 +4715,10 @@
     </row>
     <row r="115" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C115" s="7">
         <v>0</v>
